--- a/Vorstudie-Data/Teil2-Roboter/teil2-results.xlsx
+++ b/Vorstudie-Data/Teil2-Roboter/teil2-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/Teil2-Roboter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177214EC-C366-5C4E-9E7A-879EB442AC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84E2155-0397-074E-AB3F-C96E54CBA5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47240" yWindow="500" windowWidth="19200" windowHeight="23500" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49440" yWindow="500" windowWidth="19200" windowHeight="23500" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>id. Antwort ID</t>
   </si>
@@ -366,6 +366,27 @@
   </si>
   <si>
     <t>LL10AS28</t>
+  </si>
+  <si>
+    <t>2024-07-04 18:08:19</t>
+  </si>
+  <si>
+    <t>2024-07-04 18:06:51</t>
+  </si>
+  <si>
+    <t>TZ09CH25</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>2024-07-06 12:34:45</t>
+  </si>
+  <si>
+    <t>2024-07-06 12:31:14</t>
+  </si>
+  <si>
+    <t>ER09AS09</t>
   </si>
 </sst>
 </file>
@@ -750,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2742,6 +2763,226 @@
         <v>11.67</v>
       </c>
     </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>1147875795</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>48</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ25">
+        <v>89.11</v>
+      </c>
+      <c r="AK25">
+        <v>14.7</v>
+      </c>
+      <c r="AN25">
+        <v>65.06</v>
+      </c>
+      <c r="AP25">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>2043447202</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <v>4</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>28</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ26">
+        <v>211.78</v>
+      </c>
+      <c r="AK26">
+        <v>104.08</v>
+      </c>
+      <c r="AN26">
+        <v>77.58</v>
+      </c>
+      <c r="AP26">
+        <v>30.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Vorstudie-Data/Teil2-Roboter/teil2-results.xlsx
+++ b/Vorstudie-Data/Teil2-Roboter/teil2-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/Teil2-Roboter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84E2155-0397-074E-AB3F-C96E54CBA5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982C45D-2F1E-B441-BB80-A6EE3A8F028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49440" yWindow="500" windowWidth="19200" windowHeight="23500" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="19200" windowHeight="23500" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>id. Antwort ID</t>
   </si>
@@ -387,6 +387,15 @@
   </si>
   <si>
     <t>ER09AS09</t>
+  </si>
+  <si>
+    <t>2024-07-09 10:15:27</t>
+  </si>
+  <si>
+    <t>2024-07-09 10:12:11</t>
+  </si>
+  <si>
+    <t>EE5KE14</t>
   </si>
 </sst>
 </file>
@@ -771,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AS27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2653,223 +2662,223 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>58222302</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>2</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>2</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>3</v>
-      </c>
-      <c r="AD24">
-        <v>2</v>
-      </c>
-      <c r="AE24">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="1">
         <v>26</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="1">
         <v>174.67</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="1">
         <v>67.7</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="1">
         <v>95.3</v>
       </c>
-      <c r="AP24">
+      <c r="AP24" s="1">
         <v>11.67</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>1147875795</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>3</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="X25">
-        <v>3</v>
-      </c>
-      <c r="Y25">
-        <v>3</v>
-      </c>
-      <c r="Z25">
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>3</v>
+      </c>
+      <c r="T25" s="1">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1">
+        <v>3</v>
+      </c>
+      <c r="V25" s="1">
+        <v>3</v>
+      </c>
+      <c r="W25" s="1">
+        <v>3</v>
+      </c>
+      <c r="X25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="1">
         <v>4</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>4</v>
       </c>
-      <c r="AB25">
-        <v>3</v>
-      </c>
-      <c r="AC25">
+      <c r="AB25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="1">
         <v>4</v>
       </c>
-      <c r="AD25">
-        <v>3</v>
-      </c>
-      <c r="AE25">
+      <c r="AD25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="1">
         <v>48</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AH25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="1">
         <v>89.11</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="1">
         <v>14.7</v>
       </c>
-      <c r="AN25">
+      <c r="AN25" s="1">
         <v>65.06</v>
       </c>
-      <c r="AP25">
+      <c r="AP25" s="1">
         <v>9.35</v>
       </c>
     </row>
@@ -2981,6 +2990,116 @@
       </c>
       <c r="AP26">
         <v>30.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1629027292</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>3</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>197.7</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>105.71</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>13.69</v>
       </c>
     </row>
   </sheetData>
